--- a/weekly/2025-CW04_weight_tracking.xlsx
+++ b/weekly/2025-CW04_weight_tracking.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,16 +486,82 @@
       <c r="B2" t="n">
         <v>103</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>103.9</v>
+      </c>
       <c r="D2" t="n">
         <v>30</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>28.5</v>
+      </c>
       <c r="F2" t="n">
         <v>2.5</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B3" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B4" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B5" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/weekly/2025-CW04_weight_tracking.xlsx
+++ b/weekly/2025-CW04_weight_tracking.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +552,60 @@
       <c r="B5" t="n">
         <v>103.1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>103.5</v>
+      </c>
       <c r="D5" t="n">
         <v>30.1</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>27.1</v>
+      </c>
       <c r="F5" t="n">
         <v>2.5</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B6" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B7" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/weekly/2025-CW04_weight_tracking.xlsx
+++ b/weekly/2025-CW04_weight_tracking.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,16 +596,42 @@
       <c r="B7" t="n">
         <v>102.5</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>103.5</v>
+      </c>
       <c r="D7" t="n">
         <v>30</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>29.9</v>
+      </c>
       <c r="F7" t="n">
         <v>2.5</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B8" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>103</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/weekly/2025-CW04_weight_tracking.xlsx
+++ b/weekly/2025-CW04_weight_tracking.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,17 +487,15 @@
         <v>103</v>
       </c>
       <c r="C2" t="n">
-        <v>103.9</v>
+        <v>103.8666666666667</v>
       </c>
       <c r="D2" t="n">
         <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.5</v>
-      </c>
+        <v>28.9</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -508,18 +506,12 @@
       <c r="B3" t="n">
         <v>102.7</v>
       </c>
-      <c r="C3" t="n">
-        <v>103.8</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>30</v>
       </c>
-      <c r="E3" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -531,17 +523,15 @@
         <v>102.7</v>
       </c>
       <c r="C4" t="n">
-        <v>103.3</v>
+        <v>103.55</v>
       </c>
       <c r="D4" t="n">
         <v>29.7</v>
       </c>
       <c r="E4" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.5</v>
-      </c>
+        <v>28.25</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -561,9 +551,7 @@
       <c r="E5" t="n">
         <v>27.1</v>
       </c>
-      <c r="F5" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -574,18 +562,12 @@
       <c r="B6" t="n">
         <v>102.9</v>
       </c>
-      <c r="C6" t="n">
-        <v>103.3</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>30.4</v>
       </c>
-      <c r="E6" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -597,17 +579,15 @@
         <v>102.5</v>
       </c>
       <c r="C7" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="D7" t="n">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.5</v>
-      </c>
+        <v>29.2</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -618,18 +598,12 @@
       <c r="B8" t="n">
         <v>102.6</v>
       </c>
-      <c r="C8" t="n">
-        <v>103</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>29.9</v>
       </c>
-      <c r="E8" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>

--- a/weekly/2025-CW04_weight_tracking.xlsx
+++ b/weekly/2025-CW04_weight_tracking.xlsx
@@ -487,13 +487,13 @@
         <v>103</v>
       </c>
       <c r="C2" t="n">
-        <v>103.8666666666667</v>
+        <v>103.9</v>
       </c>
       <c r="D2" t="n">
         <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -506,11 +506,15 @@
       <c r="B3" t="n">
         <v>102.7</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>103.8</v>
+      </c>
       <c r="D3" t="n">
         <v>30</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>29.1</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -523,13 +527,13 @@
         <v>102.7</v>
       </c>
       <c r="C4" t="n">
-        <v>103.55</v>
+        <v>103.3</v>
       </c>
       <c r="D4" t="n">
         <v>29.7</v>
       </c>
       <c r="E4" t="n">
-        <v>28.25</v>
+        <v>27.4</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -562,11 +566,15 @@
       <c r="B6" t="n">
         <v>102.9</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>103.3</v>
+      </c>
       <c r="D6" t="n">
         <v>30.4</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>29.5</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -579,13 +587,13 @@
         <v>102.5</v>
       </c>
       <c r="C7" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D7" t="n">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -598,11 +606,15 @@
       <c r="B8" t="n">
         <v>102.6</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>29.9</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>29.3</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
